--- a/Data/results/filtered_wpp.xlsx
+++ b/Data/results/filtered_wpp.xlsx
@@ -645,7 +645,7 @@
         <v>-69.33829</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -697,7 +697,7 @@
         <v>-69.872563</v>
       </c>
       <c r="G4" t="n">
-        <v>372</v>
+        <v>186</v>
       </c>
       <c r="H4" t="s">
         <v>9</v>
@@ -723,7 +723,7 @@
         <v>-71.52110999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>58.6</v>
+        <v>29.3</v>
       </c>
       <c r="H5" t="s">
         <v>9</v>
@@ -775,7 +775,7 @@
         <v>-68.168109</v>
       </c>
       <c r="G7" t="n">
-        <v>103.5</v>
+        <v>34.5</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -983,7 +983,7 @@
         <v>-72.96791</v>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H15" t="s">
         <v>9</v>
@@ -1009,7 +1009,7 @@
         <v>-70.87350000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1034,9 +1034,7 @@
       <c r="F17" t="n">
         <v>-70.620745</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>-71.321242</v>
       </c>
       <c r="G24" t="n">
-        <v>297</v>
+        <v>99</v>
       </c>
       <c r="H24" t="s">
         <v>9</v>
@@ -1243,7 +1241,7 @@
         <v>-71.815957</v>
       </c>
       <c r="G25" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1269,7 +1267,7 @@
         <v>-68.12602</v>
       </c>
       <c r="G26" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s">
         <v>9</v>
@@ -1295,7 +1293,7 @@
         <v>-73.02439099999999</v>
       </c>
       <c r="G27" t="n">
-        <v>57</v>
+        <v>28.5</v>
       </c>
       <c r="H27" t="s">
         <v>9</v>
@@ -1347,7 +1345,7 @@
         <v>-70.846611</v>
       </c>
       <c r="G29" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="s">
         <v>9</v>
@@ -1425,7 +1423,7 @@
         <v>-70.589905</v>
       </c>
       <c r="G32" t="n">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
         <v>9</v>
@@ -1529,7 +1527,7 @@
         <v>-72.14909400000001</v>
       </c>
       <c r="G36" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="H36" t="s">
         <v>9</v>
@@ -1607,7 +1605,7 @@
         <v>-67.80898999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
         <v>9</v>
@@ -1763,7 +1761,7 @@
         <v>-68.109938</v>
       </c>
       <c r="G45" t="n">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c r="H45" t="s">
         <v>9</v>
@@ -1815,7 +1813,7 @@
         <v>-68.52516199999999</v>
       </c>
       <c r="G47" t="n">
-        <v>18.2</v>
+        <v>9.1</v>
       </c>
       <c r="H47" t="s">
         <v>9</v>
@@ -1840,9 +1838,7 @@
       <c r="F48" t="n">
         <v>-71.251392</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
         <v>9</v>
       </c>
@@ -1867,7 +1863,7 @@
         <v>-70.63422799999999</v>
       </c>
       <c r="G49" t="n">
-        <v>101.2</v>
+        <v>50.6</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -1945,7 +1941,7 @@
         <v>-68.399506</v>
       </c>
       <c r="G52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -1971,7 +1967,7 @@
         <v>-70.37577899999999</v>
       </c>
       <c r="G53" t="n">
-        <v>68.40000000000001</v>
+        <v>34.2</v>
       </c>
       <c r="H53" t="s">
         <v>9</v>
@@ -1997,7 +1993,7 @@
         <v>-70.72845</v>
       </c>
       <c r="G54" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="s">
         <v>9</v>
@@ -2049,7 +2045,7 @@
         <v>-72.11723000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s">
         <v>9</v>
@@ -2101,7 +2097,7 @@
         <v>-67.958611</v>
       </c>
       <c r="G58" t="n">
-        <v>51</v>
+        <v>25.5</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2127,7 +2123,7 @@
         <v>-67.976389</v>
       </c>
       <c r="G59" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H59" t="s">
         <v>9</v>
